--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>915943.2729059737</v>
+        <v>940704.5786978513</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7226289.925414168</v>
+        <v>8289674.162431622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3187716.8856159</v>
+        <v>4234446.52675552</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10601278.34820128</v>
+        <v>10180039.69429826</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>354.4563934200838</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>269.3035266500053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773054</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>234.2559520454606</v>
       </c>
       <c r="W4" t="n">
-        <v>36.86740133315033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>75.18525841685333</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>135.2600609046106</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>155.8860385675341</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>321.2326684606302</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1192,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>132.3976197955566</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.657500457871858</v>
+        <v>42.24730990554936</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>18.68734330243446</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.9112437681534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>166.1465464887763</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>17.18363018800014</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>5.389868198023983</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>79.3632510533628</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>149.5553587855451</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>205.5261888872237</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>10.20389322926684</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>79.41818244097703</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>92.09843453981409</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.26879610203984</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.43071945322126</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.5769297729246</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>165.6040273698195</v>
+        <v>156.6571821981382</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>84.8234080997298</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>105.4800788571759</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>6.766253124873026</v>
       </c>
       <c r="V34" t="n">
-        <v>44.14254136818175</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>10.31752739831651</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>86.66867554195356</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>172.6255381703882</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>135.7722200916845</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>35.19569619650137</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>8.558716047062283</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>214.5136103222453</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.13488027341135</v>
       </c>
       <c r="G43" t="n">
-        <v>85.65289841788703</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>181.3691162394311</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>80.76468634461104</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>275.4219237493291</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1626.717708340417</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1626.717708340417</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V2" t="n">
-        <v>2171.363541363379</v>
+        <v>2366.086203674653</v>
       </c>
       <c r="W2" t="n">
-        <v>2171.363541363379</v>
+        <v>2013.317548404539</v>
       </c>
       <c r="X2" t="n">
-        <v>2171.363541363379</v>
+        <v>2013.317548404539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>2013.317548404539</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598712</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430049</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073965</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196744</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935841</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1112.303376188265</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533136</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733122</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2033.097625012799</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4731,34 +4731,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
         <v>343.360151857325</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1481.844651382451</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C8" t="n">
-        <v>1157.367208492925</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1871.983983358263</v>
+        <v>1231.008638838401</v>
       </c>
       <c r="Y8" t="n">
-        <v>1481.844651382451</v>
+        <v>840.8693068625894</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551155</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635871</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.583838282732</v>
+        <v>1250.552243690013</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1250.552243690013</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>481.3006402936545</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2740.662926950235</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2409.600039606664</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450753</v>
+        <v>2056.83138433655</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.278283189673</v>
+        <v>1683.36562607547</v>
       </c>
       <c r="Y11" t="n">
-        <v>2051.278283189673</v>
+        <v>1293.226294099658</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>165.7864839520669</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365769</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>159.2853526912745</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.6287558445192</v>
+        <v>847.7801248620698</v>
       </c>
       <c r="C13" t="n">
-        <v>216.6287558445192</v>
+        <v>678.8439419341629</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897964</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S13" t="n">
-        <v>1720.382026433745</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.615411003271</v>
+        <v>1699.861054503352</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.512544128914</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V13" t="n">
-        <v>954.8280559230273</v>
+        <v>1156.073399244924</v>
       </c>
       <c r="W13" t="n">
-        <v>665.4108858860666</v>
+        <v>866.6562292079632</v>
       </c>
       <c r="X13" t="n">
-        <v>437.4213349880492</v>
+        <v>866.6562292079632</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.6287558445192</v>
+        <v>866.6562292079632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1250.836169983545</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
         <v>892.5704713767946</v>
@@ -5281,7 +5281,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392464</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y14" t="n">
-        <v>1418.660964416652</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>685.8122911638649</v>
+        <v>759.2995336040055</v>
       </c>
       <c r="C16" t="n">
-        <v>516.876108235958</v>
+        <v>759.2995336040055</v>
       </c>
       <c r="D16" t="n">
-        <v>366.7594688236222</v>
+        <v>609.1828941916698</v>
       </c>
       <c r="E16" t="n">
-        <v>218.8463752412291</v>
+        <v>461.2698006092767</v>
       </c>
       <c r="F16" t="n">
-        <v>71.95642774331876</v>
+        <v>314.3798531113663</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>146.6770164860853</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.594421205412</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X16" t="n">
-        <v>906.604870307395</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y16" t="n">
-        <v>685.8122911638649</v>
+        <v>940.9479984342453</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>900.9499883969586</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>515.1617357987143</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>927.3065133708208</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="X19" t="n">
-        <v>891.0653626991802</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y19" t="n">
-        <v>891.0653626991802</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="23">
@@ -5968,46 +5968,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,22 +6098,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423046</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C25" t="n">
-        <v>260.9043113423046</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="D25" t="n">
-        <v>260.9043113423046</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>324.0314732034874</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>177.8142864213452</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551606</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001571</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089243</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
         <v>1557.603359811481</v>
@@ -6241,37 +6241,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.14211023273</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679676</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390115</v>
@@ -6311,46 +6311,46 @@
         <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1507.550329366009</v>
+        <v>1606.418003953613</v>
       </c>
       <c r="U28" t="n">
-        <v>1507.550329366009</v>
+        <v>1317.315137079256</v>
       </c>
       <c r="V28" t="n">
-        <v>1507.550329366009</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.550329366009</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X28" t="n">
-        <v>1279.560778467991</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>1622.425187676629</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008795</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>814.7290857654823</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C31" t="n">
-        <v>814.7290857654823</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>664.6124463531465</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>516.6993527707534</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>369.809405272843</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>202.106568647562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6627,13 +6627,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6654,19 +6654,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1734.57685067423</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1445.15968063727</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X31" t="n">
-        <v>1217.170129739252</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y31" t="n">
-        <v>996.377550595722</v>
+        <v>962.7999446959689</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
@@ -6688,64 +6688,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L32" t="n">
-        <v>1797.117834600128</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272053</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330835</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.4168978689405</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258584</v>
+        <v>1536.056367385023</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.472083634158</v>
+        <v>1281.371879179136</v>
       </c>
       <c r="W34" t="n">
-        <v>1119.054913597198</v>
+        <v>991.9547091421751</v>
       </c>
       <c r="X34" t="n">
-        <v>891.0653626991802</v>
+        <v>763.9651582441578</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.0653626991802</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2319.94651820049</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>1950.984001260078</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1592.718302653328</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1206.930050055083</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>795.9441452654758</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>380.8716951104722</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>83.28809471923945</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923945</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>272.1672256782649</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>605.9865993681115</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1434.025350524362</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2412.575653354191</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2959.354470412973</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3462.32694129231</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>3857.101307649488</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4105.387669405171</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4164.404735961973</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4164.404735961973</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4164.404735961973</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4153.982991115188</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3822.920103771618</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3470.151448501503</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3096.685690240423</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2706.546358264612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>958.3198327681647</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>783.8668034870377</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>634.9323938257864</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>475.6949388203309</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>329.1603808472158</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>192.797280679834</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>102.2953863177015</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923945</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>176.9653642098568</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>415.2295631902039</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>781.9277235028693</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1229.204048725185</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.72709227964</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.688371697694</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2424.187963173797</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.829520820397</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.685167412913</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2452.247280906392</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.604280584248</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2031.536433718664</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.384325486921</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1542.146968758719</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1334.295468553187</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.535169788233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.9312815832557</v>
+        <v>714.7301553527309</v>
       </c>
       <c r="C37" t="n">
-        <v>329.9950986553488</v>
+        <v>545.793972424824</v>
       </c>
       <c r="D37" t="n">
-        <v>242.4509819463048</v>
+        <v>545.793972424824</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>397.8808788424309</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>250.9909313445205</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923945</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923945</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.28809471923945</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>128.410727166175</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>332.3979101150514</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>648.9577085635475</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>993.1147541630964</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.523130868961</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.852729789375</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.460230223034</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1722.303910945075</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1433.201044070718</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>1178.516555864831</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570255</v>
+        <v>889.0993858278705</v>
       </c>
       <c r="X37" t="n">
-        <v>901.3723255570255</v>
+        <v>889.0993858278705</v>
       </c>
       <c r="Y37" t="n">
-        <v>680.5797464134954</v>
+        <v>714.7301553527309</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2098.528281369342</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>1729.565764428931</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1592.422107770664</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1206.633855172419</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>795.6479503828118</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>380.5755002278082</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>271.871030795601</v>
       </c>
       <c r="K38" t="n">
-        <v>750.1800661608906</v>
+        <v>605.6904044854476</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.698881814245</v>
+        <v>1056.724617733857</v>
       </c>
       <c r="M38" t="n">
-        <v>2593.249184644074</v>
+        <v>2035.274920563685</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870721</v>
+        <v>2944.544726279773</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3447.51719715911</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>3842.291563516289</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4090.577925271971</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4149.594991828773</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4039.304323355868</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>3833.32657574009</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>3579.796099013927</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3248.733211670356</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3248.733211670356</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>2875.267453409276</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2485.128121433464</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>958.0236378855011</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>783.5706086043741</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>634.636198943123</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>475.3987439376674</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>328.8641859645525</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>192.5010857971705</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>101.999191435038</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>781.6315286202055</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.392176815031</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291134</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937734</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530249</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023729</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701585</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.240238836</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604258</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876056</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670523</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.3002584566048</v>
+        <v>287.4792910437767</v>
       </c>
       <c r="C40" t="n">
-        <v>390.3640755286979</v>
+        <v>118.5431081158698</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>128.1145322835111</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323875</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808837</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804327</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986298</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1752.088447319712</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1530.321831889238</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1241.218965014881</v>
       </c>
       <c r="V40" t="n">
-        <v>1198.376021052697</v>
+        <v>986.5344768089943</v>
       </c>
       <c r="W40" t="n">
-        <v>1189.730853328392</v>
+        <v>697.1173067720338</v>
       </c>
       <c r="X40" t="n">
-        <v>961.7413024303746</v>
+        <v>469.1277558740164</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.9487232868445</v>
+        <v>469.1277558740164</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2319.650323317826</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>1950.687806377414</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1592.422107770664</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1206.633855172419</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>795.6479503828118</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>380.5755002278082</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>773.0960535058005</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1637.614869159155</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518747</v>
+        <v>2171.14677383108</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.23671557753</v>
+        <v>2717.925590889862</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>3220.898061769199</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>3842.291563516289</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4090.577925271971</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4149.594991828773</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4039.304323355868</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4039.304323355868</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4039.304323355868</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3822.623908888954</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3469.855253618839</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3096.38949535776</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2706.250163381948</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>958.0236378855002</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>783.5706086043732</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>634.6361989431221</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>475.3987439376665</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>328.8641859645516</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>192.50108579717</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>101.9991914350375</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271927</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.238974905568</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>795.9349770789274</v>
+        <v>426.6124209862653</v>
       </c>
       <c r="C43" t="n">
-        <v>626.9987941510205</v>
+        <v>426.6124209862653</v>
       </c>
       <c r="D43" t="n">
-        <v>476.8821547386848</v>
+        <v>276.4957815739295</v>
       </c>
       <c r="E43" t="n">
-        <v>328.9690611562917</v>
+        <v>128.5826879915364</v>
       </c>
       <c r="F43" t="n">
-        <v>182.0791136583813</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1662.257990077239</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1662.257990077239</v>
       </c>
       <c r="U43" t="n">
-        <v>1453.060509258584</v>
+        <v>1373.155123202883</v>
       </c>
       <c r="V43" t="n">
-        <v>1198.376021052697</v>
+        <v>1118.470634996996</v>
       </c>
       <c r="W43" t="n">
-        <v>1198.376021052697</v>
+        <v>829.0534649600352</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.376021052697</v>
+        <v>829.0534649600352</v>
       </c>
       <c r="Y43" t="n">
-        <v>977.5834419091672</v>
+        <v>608.260885816505</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2022.066722926593</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>1653.104205986181</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1294.838507379431</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>909.0502547811866</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>498.064349991579</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>819.3679737833318</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1270.402187031741</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>1803.934091703665</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2350.712908762448</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>2853.685379641784</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>3567.04046708873</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4025.518669597718</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4149.594991828773</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4039.304323355868</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4039.304323355868</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>3856.103195841291</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3525.040308497721</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3172.271653227606</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>2798.805894966526</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2408.666562990715</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>958.0236378855002</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>783.5706086043732</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>634.6361989431221</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>475.3987439376665</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>328.8641859645516</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>192.5010857971704</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>101.999191435038</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.238974905568</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.4168978689405</v>
+        <v>479.1651752169497</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>397.5846839597668</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>397.5846839597668</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>397.5846839597668</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>82.99189983657547</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1722.007716062411</v>
       </c>
       <c r="U46" t="n">
-        <v>1644.746393431758</v>
+        <v>1432.904849188054</v>
       </c>
       <c r="V46" t="n">
-        <v>1390.061905225871</v>
+        <v>1178.220360982167</v>
       </c>
       <c r="W46" t="n">
-        <v>1111.85794184271</v>
+        <v>888.8031909452068</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.85794184271</v>
+        <v>660.8136400471894</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.0653626991802</v>
+        <v>660.8136400471894</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270188</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.046752671908</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476822</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10117,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>19.79750571619127</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0304280898992</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>380.8126645533757</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>366.1525137952583</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>353.7642348290854</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>228.908217565567</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>46.73931341164786</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2266482005991861</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22603,19 +22603,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>58.44873182012964</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>17.88169127836736</v>
       </c>
       <c r="W4" t="n">
-        <v>249.6555970034407</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22789,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>306.7451116554084</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>192.4921975655244</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,22 +22986,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>130.3958356744436</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,10 +23023,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>44.04022331037731</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>237.3334808829124</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>38.5263015572605</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>379.0763412056087</v>
+        <v>340.4865317579312</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>161.1446368795028</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S13" t="n">
-        <v>73.8577815632885</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.5872951747043</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>369.0543084680535</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.6359400610042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>65.39176386095798</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>257.3206869561664</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>46.61145443660428</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>215.5057621597703</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>290.312918237492</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270132</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>54.33552810675508</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>14.92170095661683</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>53.94492190634969</v>
+        <v>62.89176707803097</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>95.00857208220749</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.27493605714487</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>279.4455850807399</v>
       </c>
       <c r="V34" t="n">
-        <v>207.9951019556462</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>240.6776445605855</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>61.94679747625879</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>45.95911518170661</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>218.9108215289984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>113.419776821711</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>277.9642822895287</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>113.2386481478896</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>100.2861677495199</v>
       </c>
       <c r="G43" t="n">
-        <v>80.37290984114119</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>69.62605571947086</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>86.4821347540168</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>11.10107458726191</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770429.2612857189</v>
+        <v>770429.261285719</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770429.2612857188</v>
+        <v>770429.2612857189</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770429.2612857188</v>
+        <v>770429.2612857189</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839712.5002338423</v>
+        <v>838126.660090119</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839712.5002338423</v>
+        <v>839712.5002338422</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997148.1876184228</v>
+        <v>839712.5002338422</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997148.1876184228</v>
+        <v>839712.5002338423</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>997148.1876184228</v>
+        <v>930632.8461034391</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>997148.1876184228</v>
+        <v>929027.566177833</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>997148.1876184229</v>
+        <v>929027.566177833</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997148.1876184228</v>
+        <v>929027.566177833</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165458</v>
       </c>
       <c r="E2" t="n">
+        <v>357333.3707313609</v>
+      </c>
+      <c r="F2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="G2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="G2" t="n">
-        <v>416935.8762313324</v>
-      </c>
-      <c r="H2" t="n">
-        <v>416935.8762313325</v>
-      </c>
       <c r="I2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="J2" t="n">
         <v>416935.8762313324</v>
@@ -26346,16 +26346,16 @@
         <v>416935.8762313324</v>
       </c>
       <c r="M2" t="n">
-        <v>416935.8762313324</v>
+        <v>392055.7690326723</v>
       </c>
       <c r="N2" t="n">
-        <v>416935.8762313323</v>
+        <v>391455.3130217242</v>
       </c>
       <c r="O2" t="n">
-        <v>416935.8762313324</v>
+        <v>391455.3130217243</v>
       </c>
       <c r="P2" t="n">
-        <v>416935.8762313324</v>
+        <v>391455.3130217242</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503535</v>
+        <v>615427.5337980477</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.010472953407</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091489</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>96558.9665973605</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254672</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>87383.1396189899</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>62518.47524617217</v>
       </c>
       <c r="C4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617215</v>
       </c>
       <c r="D4" t="n">
         <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>4967.456039976125</v>
       </c>
       <c r="F4" t="n">
         <v>4890.851381993015</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
@@ -26444,22 +26444,22 @@
         <v>25090.72367499379</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>16556.43626882341</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>16350.46994676232</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>16350.46994676232</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>16350.46994676233</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74015.36825377261</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>87056.08405955588</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>86830.97594873125</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>86830.97594873125</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>86830.97594873125</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437803.6057533997</v>
+        <v>-432342.0333821629</v>
       </c>
       <c r="C6" t="n">
-        <v>152164.2734611446</v>
+        <v>157625.8458323819</v>
       </c>
       <c r="D6" t="n">
-        <v>152164.2734611446</v>
+        <v>157625.8458323822</v>
       </c>
       <c r="E6" t="n">
-        <v>-343586.7432723344</v>
+        <v>-337428.0043054231</v>
       </c>
       <c r="F6" t="n">
-        <v>275373.5726780192</v>
+        <v>275053.1325733208</v>
       </c>
       <c r="G6" t="n">
-        <v>195266.2707194521</v>
+        <v>278502.143046274</v>
       </c>
       <c r="H6" t="n">
-        <v>294789.6794003671</v>
+        <v>278502.1430462742</v>
       </c>
       <c r="I6" t="n">
-        <v>294789.679400367</v>
+        <v>198835.4722150385</v>
       </c>
       <c r="J6" t="n">
-        <v>118366.4602077739</v>
+        <v>118971.2196198062</v>
       </c>
       <c r="K6" t="n">
-        <v>294789.6794003669</v>
+        <v>295394.438812399</v>
       </c>
       <c r="L6" t="n">
-        <v>294789.6794003673</v>
+        <v>295394.4388123991</v>
       </c>
       <c r="M6" t="n">
-        <v>255636.1966278202</v>
+        <v>288257.5765131213</v>
       </c>
       <c r="N6" t="n">
-        <v>294789.6794003669</v>
+        <v>288085.3356207208</v>
       </c>
       <c r="O6" t="n">
-        <v>207406.5397813771</v>
+        <v>288085.3356207213</v>
       </c>
       <c r="P6" t="n">
-        <v>294789.679400367</v>
+        <v>288085.335620721</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26761,10 +26761,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26822,16 +26822,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1041.101183990493</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957193</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>709.0117429451997</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.021293431011827</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,19 +26983,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>153.4117466144371</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>363.1114752026373</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>153.4117466144371</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M4" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970243</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181305</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35889,16 +35889,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36612,13 +36612,13 @@
         <v>852.7555845359016</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>558.7186215464181</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509647</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525799</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L32" t="n">
-        <v>866.6205424822314</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37311,16 +37311,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>836.4027789457078</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>470.4443441954251</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>918.4543492081698</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>892.6853506593121</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>627.6702037849388</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>383.9305999670484</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
